--- a/src/main/resources/ticket/excel/ticket_template.xlsx
+++ b/src/main/resources/ticket/excel/ticket_template.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05671C34-9F5C-463C-BD1E-C8231C8433AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A91A64-F7FE-44F8-980B-BAABAD580F1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2505" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,11 +45,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="E14")</t>
+          <t>jx:area(lastCell="AC15")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F94CA481-DB1E-4259-B088-7B59AFDF733E}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{8BE7F819-EEB0-49BB-9EA2-7694B8BD00C6}">
       <text>
         <r>
           <rPr>
@@ -52,12 +58,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="E14" items="master" var="entry" direction="DOWN")
-</t>
+          <t>jx:each(lastCell="E15" items="daAssegnare" var="entry" direction="DOWN")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{B45BEBBF-67B4-40AE-9CCE-7848CE7267BB}">
       <text>
         <r>
           <rPr>
@@ -66,11 +71,67 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="A6" src="static_image" imageType="PNG")</t>
+          <t xml:space="preserve">jx:each(lastCell="K15" items="assegnato" var="entry" direction="DOWN")
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{510602F7-8265-45BB-9E6D-90C873599C68}">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{D9577F8E-5879-42C4-86E5-6EE853E4DA9F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="Q15" items="inCorso" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{8E1E2210-8051-42EE-95F8-C94F4D5E2CF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="W15" items="daTestare" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{F94CA481-DB1E-4259-B088-7B59AFDF733E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="AC15" items="daRilasciare" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7A210D83-3382-460A-8405-50680329B020}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="A7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{070BE882-A48A-4710-9F9D-C4459B46CCAD}">
       <text>
         <r>
           <rPr>
@@ -83,12 +144,116 @@
         </r>
       </text>
     </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{C8C0E1BC-6E24-40F6-86F1-CFA78FAF621F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="G7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{72D467D0-A480-4F72-A0B9-6B877F1B3E54}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="J8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{EC59CE83-7265-4515-A225-768B7BDB9923}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="M7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{8DC318DC-EDF5-4735-BA1A-391A3D7B6640}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="P8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{D773BEC2-28BC-477C-AD6A-7A6162299C53}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="S7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{D06FA38A-1E79-4E3A-993F-4D1CA6E25605}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="V8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="Y7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB6" authorId="0" shapeId="0" xr:uid="{510602F7-8265-45BB-9E6D-90C873599C68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="AB8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Ticket Demo</t>
   </si>
@@ -107,12 +272,36 @@
   <si>
     <t>${entry.percentuale}</t>
   </si>
+  <si>
+    <t>Da testare:</t>
+  </si>
+  <si>
+    <t>In corso:</t>
+  </si>
+  <si>
+    <t>Assegnato:</t>
+  </si>
+  <si>
+    <t>Da assegnare:</t>
+  </si>
+  <si>
+    <t>Priorità</t>
+  </si>
+  <si>
+    <t>Scadenza</t>
+  </si>
+  <si>
+    <t>${entry.scadenza}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="##\%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +335,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,18 +377,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,49 +402,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -499,19 +817,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="27" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="4.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="27" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,107 +854,1263 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+    <row r="5" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="23"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="29"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="23"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="7"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="7"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="7"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="7"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="7"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="10"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C9:E9"/>
+  <mergeCells count="9">
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="N6:O8"/>
+    <mergeCell ref="T6:U8"/>
+    <mergeCell ref="Z6:AA8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>B9&gt;80</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>B9 &gt;= 50 &amp; B9 &lt;= 80</formula>
+  <conditionalFormatting sqref="B1:B4 B9 B6 B13:B1048576 B11">
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{292D74C2-A63F-4756-A419-FD3786D80770}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4 B13 B6 B9 B11">
+    <cfRule type="dataBar" priority="74">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FB6520F-7E7C-4D4D-B07E-0DF1DD90D4CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4 B13 B6 B9 B11">
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC9A3D09-A625-4D6A-A6F2-65A1EEB245B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13 H4 H9 H11">
+    <cfRule type="dataBar" priority="104">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0C6481F-8E25-4932-8F2E-458043B4D79E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4 H13 H9 H11">
+    <cfRule type="dataBar" priority="106">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4 N13 N9 N11">
+    <cfRule type="dataBar" priority="130">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4 T13 T9:T11">
+    <cfRule type="dataBar" priority="153">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C86F085-A0EF-4F51-A923-104D16E54C83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T4 N9 T13:T1048576 N1:N4 N13:N1048576 Z1:Z4 Z9:Z11 Z13:Z1048576 N11 T9:T11">
+    <cfRule type="dataBar" priority="201">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03E6A84F-6B00-426F-8C08-7E917B38CF90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z4 Z13 Z9:Z11 B1:B2 B14:B1048576">
+    <cfRule type="dataBar" priority="214">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5580873E-0864-40C1-B63B-66184C90568C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H4 H9 H13:H1048576 H11">
+    <cfRule type="dataBar" priority="219">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C94A2681-2C65-41DA-9F26-47E403996E7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z4 Z13 Z9:Z11 H1:H2 H14:H1048576">
+    <cfRule type="dataBar" priority="230">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71EA1693-A780-4AEE-A440-B49829A87B25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7336A9D4-5D73-469C-98D2-6C14967FE070}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FE6F0EC-340B-4062-A4B3-4319FD4A477C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01476CE9-C95E-4AB3-8FD1-E8BBFC4E74B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66CCEAEB-2C0A-4DEA-8A2E-0D232B8A019B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10E09E2B-ED6A-467F-A307-4CE8E5985EDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{918263AF-E8B7-48C7-9D4E-009DD3D4E58E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1E8B1750-AFAB-43B9-ADE0-A26B224F351F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09DB2C48-CBEF-470C-9E72-4F8E2A01D69F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A1AED680-BF06-45B4-BA1F-F48FECF3DD4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8588181-C99C-4C32-8FC5-CFE782864D88}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CD6E14E6-4274-40BD-94B8-E073D018BF98}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F97C138-7E9D-4AA0-9128-99AD05A7BA90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3FAC67B1-B696-4E51-A1BF-9AB2152F92D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C30EA75D-F2DA-4578-842E-A9EC4CC79003}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B0A1E28-3614-4720-B87F-966D4F499711}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D4177E5-D34C-4FB0-9E2C-1A957CBF90D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C2A2C4A-6BE3-4CA6-ACBD-899468A633E5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0174BB0-F100-49D4-BD32-9DF44C3CB71C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B55B6274-DF24-4EF6-B38E-E98AF0BB113D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4647EEE2-405B-4D6F-B2AF-E390C4E9464E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68C23831-572F-48F2-ACD9-8AA9F13279FF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8952482A-D9B4-4731-AE47-DC70FF76F34A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F7AD1F7-9E39-461F-A02E-462C98A08F61}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{292D74C2-A63F-4756-A419-FD3786D80770}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B4 B9 B6 B13:B1048576 B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FB6520F-7E7C-4D4D-B07E-0DF1DD90D4CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4 B13 B6 B9 B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC9A3D09-A625-4D6A-A6F2-65A1EEB245B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B4 B13 B6 B9 B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0C6481F-8E25-4932-8F2E-458043B4D79E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13 H4 H9 H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3:H4 H13 H9 H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N4 N13 N9 N11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C86F085-A0EF-4F51-A923-104D16E54C83}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T4 T13 T9:T11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03E6A84F-6B00-426F-8C08-7E917B38CF90}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T1:T4 N9 T13:T1048576 N1:N4 N13:N1048576 Z1:Z4 Z9:Z11 Z13:Z1048576 N11 T9:T11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5580873E-0864-40C1-B63B-66184C90568C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z3:Z4 Z13 Z9:Z11 B1:B2 B14:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C94A2681-2C65-41DA-9F26-47E403996E7B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H4 H9 H13:H1048576 H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71EA1693-A780-4AEE-A440-B49829A87B25}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z3:Z4 Z13 Z9:Z11 H1:H2 H14:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7336A9D4-5D73-469C-98D2-6C14967FE070}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FE6F0EC-340B-4062-A4B3-4319FD4A477C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01476CE9-C95E-4AB3-8FD1-E8BBFC4E74B4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66CCEAEB-2C0A-4DEA-8A2E-0D232B8A019B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10E09E2B-ED6A-467F-A307-4CE8E5985EDA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{918263AF-E8B7-48C7-9D4E-009DD3D4E58E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1E8B1750-AFAB-43B9-ADE0-A26B224F351F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09DB2C48-CBEF-470C-9E72-4F8E2A01D69F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A1AED680-BF06-45B4-BA1F-F48FECF3DD4E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8588181-C99C-4C32-8FC5-CFE782864D88}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD6E14E6-4274-40BD-94B8-E073D018BF98}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F97C138-7E9D-4AA0-9128-99AD05A7BA90}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3FAC67B1-B696-4E51-A1BF-9AB2152F92D2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C30EA75D-F2DA-4578-842E-A9EC4CC79003}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B0A1E28-3614-4720-B87F-966D4F499711}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D4177E5-D34C-4FB0-9E2C-1A957CBF90D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C2A2C4A-6BE3-4CA6-ACBD-899468A633E5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0174BB0-F100-49D4-BD32-9DF44C3CB71C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B55B6274-DF24-4EF6-B38E-E98AF0BB113D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4647EEE2-405B-4D6F-B2AF-E390C4E9464E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68C23831-572F-48F2-ACD9-8AA9F13279FF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8952482A-D9B4-4731-AE47-DC70FF76F34A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F7AD1F7-9E39-461F-A02E-462C98A08F61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/ticket/excel/ticket_template.xlsx
+++ b/src/main/resources/ticket/excel/ticket_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A91A64-F7FE-44F8-980B-BAABAD580F1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7EDA4-DF7A-482E-BF01-962DD65D5752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3885" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="AC15")</t>
+          <t>jx:area(lastCell="AH15")</t>
         </r>
       </text>
     </comment>
@@ -58,11 +58,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="E15" items="daAssegnare" var="entry" direction="DOWN")</t>
+          <t>jx:each(lastCell="F15" items="daAssegnare" var="entry" direction="DOWN")</t>
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{B45BEBBF-67B4-40AE-9CCE-7848CE7267BB}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{B45BEBBF-67B4-40AE-9CCE-7848CE7267BB}">
       <text>
         <r>
           <rPr>
@@ -71,12 +71,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="K15" items="assegnato" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="M15" items="assegnato" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{D9577F8E-5879-42C4-86E5-6EE853E4DA9F}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{D9577F8E-5879-42C4-86E5-6EE853E4DA9F}">
       <text>
         <r>
           <rPr>
@@ -85,12 +85,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="Q15" items="inCorso" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="T15" items="inCorso" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{8E1E2210-8051-42EE-95F8-C94F4D5E2CF7}">
+    <comment ref="V4" authorId="0" shapeId="0" xr:uid="{8E1E2210-8051-42EE-95F8-C94F4D5E2CF7}">
       <text>
         <r>
           <rPr>
@@ -99,12 +99,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="W15" items="daTestare" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="AA15" items="daTestare" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{F94CA481-DB1E-4259-B088-7B59AFDF733E}">
+    <comment ref="AC4" authorId="0" shapeId="0" xr:uid="{F94CA481-DB1E-4259-B088-7B59AFDF733E}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="AC15" items="daRilasciare" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="AH15" items="daRilasciare" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{070BE882-A48A-4710-9F9D-C4459B46CCAD}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{070BE882-A48A-4710-9F9D-C4459B46CCAD}">
       <text>
         <r>
           <rPr>
@@ -140,11 +140,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="D8" src="user_ph" imageType="PNG")</t>
+          <t>jx:image(lastCell="E8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{C8C0E1BC-6E24-40F6-86F1-CFA78FAF621F}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{C8C0E1BC-6E24-40F6-86F1-CFA78FAF621F}">
       <text>
         <r>
           <rPr>
@@ -153,11 +153,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="G7" src="static_image" imageType="PNG")</t>
+          <t>jx:image(lastCell="H7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{72D467D0-A480-4F72-A0B9-6B877F1B3E54}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{72D467D0-A480-4F72-A0B9-6B877F1B3E54}">
       <text>
         <r>
           <rPr>
@@ -166,11 +166,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="J8" src="user_ph" imageType="PNG")</t>
+          <t>jx:image(lastCell="L8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{EC59CE83-7265-4515-A225-768B7BDB9923}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{EC59CE83-7265-4515-A225-768B7BDB9923}">
       <text>
         <r>
           <rPr>
@@ -179,11 +179,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="M7" src="static_image" imageType="PNG")</t>
+          <t>jx:image(lastCell="O7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{8DC318DC-EDF5-4735-BA1A-391A3D7B6640}">
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{8DC318DC-EDF5-4735-BA1A-391A3D7B6640}">
       <text>
         <r>
           <rPr>
@@ -192,11 +192,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="P8" src="user_ph" imageType="PNG")</t>
+          <t>jx:image(lastCell="S8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{D773BEC2-28BC-477C-AD6A-7A6162299C53}">
+    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{D773BEC2-28BC-477C-AD6A-7A6162299C53}">
       <text>
         <r>
           <rPr>
@@ -205,11 +205,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="S7" src="static_image" imageType="PNG")</t>
+          <t>jx:image(lastCell="V7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{D06FA38A-1E79-4E3A-993F-4D1CA6E25605}">
+    <comment ref="Z6" authorId="0" shapeId="0" xr:uid="{D06FA38A-1E79-4E3A-993F-4D1CA6E25605}">
       <text>
         <r>
           <rPr>
@@ -218,11 +218,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="V8" src="user_ph" imageType="PNG")</t>
+          <t>jx:image(lastCell="Z8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y6" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
+    <comment ref="AC6" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
       <text>
         <r>
           <rPr>
@@ -231,11 +231,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="Y7" src="static_image" imageType="PNG")</t>
+          <t>jx:image(lastCell="AC7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB6" authorId="0" shapeId="0" xr:uid="{510602F7-8265-45BB-9E6D-90C873599C68}">
+    <comment ref="AG6" authorId="0" shapeId="0" xr:uid="{510602F7-8265-45BB-9E6D-90C873599C68}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="AB8" src="user_ph" imageType="PNG")</t>
+          <t>jx:image(lastCell="AG8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
@@ -301,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##\%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,50 +319,41 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Lato UI"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Lato UI"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Lato UI"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Lato UI"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lato UI"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Lato UI"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Lato UI"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,48 +483,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,8 +528,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,443 +817,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="1" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="27" style="1" customWidth="1"/>
-    <col min="21" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="4.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="27" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" style="2" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="2"/>
+    <col min="29" max="29" width="4.5703125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3" style="2" customWidth="1"/>
+    <col min="31" max="31" width="20.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:34" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+    <row r="3" spans="1:34">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="9" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="16"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+    <row r="5" spans="1:34" s="14" customFormat="1" ht="6" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="20"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="16"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="16"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:34" s="14" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="29" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="O6" s="17"/>
+      <c r="Q6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="23"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="29" t="s">
+      <c r="R6" s="18"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="V6" s="17"/>
+      <c r="X6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="23"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="29" t="s">
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AC6" s="17"/>
+      <c r="AE6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="23"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="21"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="7"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="7"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="7"/>
+    <row r="7" spans="1:34" s="14" customFormat="1" ht="12">
+      <c r="A7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="17"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="21"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="21"/>
+      <c r="AC7" s="17"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="21"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="7"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="7"/>
+    <row r="8" spans="1:34" s="14" customFormat="1" ht="12">
+      <c r="A8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="O8" s="17"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="21"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="21"/>
+      <c r="AC8" s="17"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="21"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="7"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="7"/>
+    <row r="9" spans="1:34" s="14" customFormat="1" ht="12">
+      <c r="A9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="O9" s="17"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AC9" s="17"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="21"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:34" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="28" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="K10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="28" t="s">
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="O10" s="17"/>
+      <c r="Q10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="R10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="28" t="s">
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="V10" s="17"/>
+      <c r="X10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="U10" s="30" t="s">
+      <c r="Y10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="31"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="28" t="s">
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AC10" s="17"/>
+      <c r="AE10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="30" t="s">
+      <c r="AF10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="31"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="27"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="7"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="7"/>
+    <row r="11" spans="1:34" s="14" customFormat="1" ht="12">
+      <c r="A11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="O11" s="17"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="V11" s="17"/>
+      <c r="X11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AC11" s="17"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="21"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:34" s="14" customFormat="1" ht="12">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="17" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="K12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="17" t="s">
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="R12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="17" t="s">
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="17" t="s">
+      <c r="AA12" s="32"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AF12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="10"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="32"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:34" ht="15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="K13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="R13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U13" s="27" t="s">
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="14"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12" t="s">
+      <c r="AA13" s="10"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="27" t="s">
+      <c r="AF13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="14"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="10"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="26"/>
+    <row r="37" spans="6:6">
+      <c r="F37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="N6:O8"/>
-    <mergeCell ref="T6:U8"/>
-    <mergeCell ref="Z6:AA8"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AE6:AF8"/>
+    <mergeCell ref="X6:Y8"/>
+    <mergeCell ref="Q6:R8"/>
+    <mergeCell ref="J6:K8"/>
+    <mergeCell ref="C6:D8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B4 B9 B6 B13:B1048576 B11">
+  <conditionalFormatting sqref="B1:B3 C9 C4 C6 B14:B1048576 C13 C11">
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
@@ -1267,7 +1267,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 B13 B6 B9 B11">
+  <conditionalFormatting sqref="C13 C4 C6 C9 C11">
     <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
@@ -1281,7 +1281,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4 B13 B6 B9 B11">
+  <conditionalFormatting sqref="B3 C13 C4 C6 C9 C11">
     <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
@@ -1295,7 +1295,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 H4 H9 H11">
+  <conditionalFormatting sqref="J4 J13 J9 J11">
     <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="min"/>
@@ -1309,7 +1309,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4 H13 H9 H11">
+  <conditionalFormatting sqref="I3 J13 J4 J9 J11">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="min"/>
@@ -1323,7 +1323,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4 N13 N9 N11">
+  <conditionalFormatting sqref="Q4 Q13 Q9 Q11">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="min"/>
@@ -1337,7 +1337,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4 T13 T9:T11">
+  <conditionalFormatting sqref="X13 W4 W9 X10:X11">
     <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
@@ -1351,7 +1351,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T4 N9 T13:T1048576 N1:N4 N13:N1048576 Z1:Z4 Z9:Z11 Z13:Z1048576 N11 T9:T11">
+  <conditionalFormatting sqref="X13 Q9 W9 X10:X11 AE9:AE11 T1:T2 W3:W4 T14:T1048576 N1:N2 P3 Q4 N14:N1048576 Q13 Z1:Z2 AD3 AE4 Z14:Z1048576 AE13 Q11">
     <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="min"/>
@@ -1365,7 +1365,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z4 Z13 Z9:Z11 B1:B2 B14:B1048576">
+  <conditionalFormatting sqref="AE13 AD3 AE4 AE9:AE11 B1:B2 B14:B1048576">
     <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
@@ -1379,7 +1379,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H4 H9 H13:H1048576 H11">
+  <conditionalFormatting sqref="H1:H2 J9 I3 J4 H14:H1048576 J13 J11">
     <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
@@ -1393,7 +1393,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z4 Z13 Z9:Z11 H1:H2 H14:H1048576">
+  <conditionalFormatting sqref="AD3 AE13 AE4 AE9:AE11 H1:H2 H14:H1048576">
     <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
@@ -1407,7 +1407,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -1421,7 +1421,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
@@ -1435,7 +1435,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -1449,7 +1449,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="Q6">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -1463,7 +1463,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="Q6">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -1477,7 +1477,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="Q6">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -1491,7 +1491,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6">
+  <conditionalFormatting sqref="X6">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
@@ -1505,7 +1505,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6">
+  <conditionalFormatting sqref="X6">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -1519,7 +1519,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6">
+  <conditionalFormatting sqref="X6">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -1533,7 +1533,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6">
+  <conditionalFormatting sqref="AE6">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -1547,7 +1547,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6">
+  <conditionalFormatting sqref="AE6">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -1561,7 +1561,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6">
+  <conditionalFormatting sqref="AE6">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -1575,7 +1575,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
+  <conditionalFormatting sqref="X10">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -1589,7 +1589,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
+  <conditionalFormatting sqref="X10">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -1603,7 +1603,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
+  <conditionalFormatting sqref="Q10">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -1617,7 +1617,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
+  <conditionalFormatting sqref="Q10">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -1631,7 +1631,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
+  <conditionalFormatting sqref="Q10">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -1645,7 +1645,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -1659,7 +1659,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -1673,7 +1673,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -1687,7 +1687,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="C10">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -1701,7 +1701,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="C10">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -1715,7 +1715,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="C10">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -1744,7 +1744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B4 B9 B6 B13:B1048576 B11</xm:sqref>
+          <xm:sqref>B1:B3 C9 C4 C6 B14:B1048576 C13 C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5FB6520F-7E7C-4D4D-B07E-0DF1DD90D4CE}">
@@ -1755,7 +1755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B4 B13 B6 B9 B11</xm:sqref>
+          <xm:sqref>C13 C4 C6 C9 C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC9A3D09-A625-4D6A-A6F2-65A1EEB245B6}">
@@ -1766,7 +1766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B3:B4 B13 B6 B9 B11</xm:sqref>
+          <xm:sqref>B3 C13 C4 C6 C9 C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C0C6481F-8E25-4932-8F2E-458043B4D79E}">
@@ -1777,7 +1777,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13 H4 H9 H11</xm:sqref>
+          <xm:sqref>J4 J13 J9 J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}">
@@ -1788,7 +1788,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H3:H4 H13 H9 H11</xm:sqref>
+          <xm:sqref>I3 J13 J4 J9 J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}">
@@ -1799,7 +1799,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N4 N13 N9 N11</xm:sqref>
+          <xm:sqref>Q4 Q13 Q9 Q11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2C86F085-A0EF-4F51-A923-104D16E54C83}">
@@ -1810,7 +1810,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T4 T13 T9:T11</xm:sqref>
+          <xm:sqref>X13 W4 W9 X10:X11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03E6A84F-6B00-426F-8C08-7E917B38CF90}">
@@ -1821,7 +1821,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T1:T4 N9 T13:T1048576 N1:N4 N13:N1048576 Z1:Z4 Z9:Z11 Z13:Z1048576 N11 T9:T11</xm:sqref>
+          <xm:sqref>X13 Q9 W9 X10:X11 AE9:AE11 T1:T2 W3:W4 T14:T1048576 N1:N2 P3 Q4 N14:N1048576 Q13 Z1:Z2 AD3 AE4 Z14:Z1048576 AE13 Q11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5580873E-0864-40C1-B63B-66184C90568C}">
@@ -1832,7 +1832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:Z4 Z13 Z9:Z11 B1:B2 B14:B1048576</xm:sqref>
+          <xm:sqref>AE13 AD3 AE4 AE9:AE11 B1:B2 B14:B1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C94A2681-2C65-41DA-9F26-47E403996E7B}">
@@ -1843,7 +1843,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:H4 H9 H13:H1048576 H11</xm:sqref>
+          <xm:sqref>H1:H2 J9 I3 J4 H14:H1048576 J13 J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{71EA1693-A780-4AEE-A440-B49829A87B25}">
@@ -1854,7 +1854,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:Z4 Z13 Z9:Z11 H1:H2 H14:H1048576</xm:sqref>
+          <xm:sqref>AD3 AE13 AE4 AE9:AE11 H1:H2 H14:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7336A9D4-5D73-469C-98D2-6C14967FE070}">
@@ -1865,7 +1865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6</xm:sqref>
+          <xm:sqref>J6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4FE6F0EC-340B-4062-A4B3-4319FD4A477C}">
@@ -1876,7 +1876,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6</xm:sqref>
+          <xm:sqref>J6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01476CE9-C95E-4AB3-8FD1-E8BBFC4E74B4}">
@@ -1887,7 +1887,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6</xm:sqref>
+          <xm:sqref>J6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66CCEAEB-2C0A-4DEA-8A2E-0D232B8A019B}">
@@ -1898,7 +1898,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N6</xm:sqref>
+          <xm:sqref>Q6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10E09E2B-ED6A-467F-A307-4CE8E5985EDA}">
@@ -1909,7 +1909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N6</xm:sqref>
+          <xm:sqref>Q6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{918263AF-E8B7-48C7-9D4E-009DD3D4E58E}">
@@ -1920,7 +1920,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N6</xm:sqref>
+          <xm:sqref>Q6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1E8B1750-AFAB-43B9-ADE0-A26B224F351F}">
@@ -1931,7 +1931,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T6</xm:sqref>
+          <xm:sqref>X6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09DB2C48-CBEF-470C-9E72-4F8E2A01D69F}">
@@ -1942,7 +1942,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T6</xm:sqref>
+          <xm:sqref>X6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A1AED680-BF06-45B4-BA1F-F48FECF3DD4E}">
@@ -1953,7 +1953,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T6</xm:sqref>
+          <xm:sqref>X6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8588181-C99C-4C32-8FC5-CFE782864D88}">
@@ -1964,7 +1964,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z6</xm:sqref>
+          <xm:sqref>AE6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD6E14E6-4274-40BD-94B8-E073D018BF98}">
@@ -1975,7 +1975,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z6</xm:sqref>
+          <xm:sqref>AE6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F97C138-7E9D-4AA0-9128-99AD05A7BA90}">
@@ -1986,7 +1986,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z6</xm:sqref>
+          <xm:sqref>AE6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3FAC67B1-B696-4E51-A1BF-9AB2152F92D2}">
@@ -1997,7 +1997,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T10</xm:sqref>
+          <xm:sqref>X10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30EA75D-F2DA-4578-842E-A9EC4CC79003}">
@@ -2008,7 +2008,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T10</xm:sqref>
+          <xm:sqref>X10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0B0A1E28-3614-4720-B87F-966D4F499711}">
@@ -2019,7 +2019,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N10</xm:sqref>
+          <xm:sqref>Q10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D4177E5-D34C-4FB0-9E2C-1A957CBF90D3}">
@@ -2030,7 +2030,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N10</xm:sqref>
+          <xm:sqref>Q10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2C2A2C4A-6BE3-4CA6-ACBD-899468A633E5}">
@@ -2041,7 +2041,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N10</xm:sqref>
+          <xm:sqref>Q10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0174BB0-F100-49D4-BD32-9DF44C3CB71C}">
@@ -2052,7 +2052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B55B6274-DF24-4EF6-B38E-E98AF0BB113D}">
@@ -2063,7 +2063,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4647EEE2-405B-4D6F-B2AF-E390C4E9464E}">
@@ -2074,7 +2074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{68C23831-572F-48F2-ACD9-8AA9F13279FF}">
@@ -2085,7 +2085,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B10</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8952482A-D9B4-4731-AE47-DC70FF76F34A}">
@@ -2096,7 +2096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B10</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F7AD1F7-9E39-461F-A02E-462C98A08F61}">
@@ -2107,7 +2107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B10</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/src/main/resources/ticket/excel/ticket_template.xlsx
+++ b/src/main/resources/ticket/excel/ticket_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A73C1-2E7E-45C7-BD5E-C83017638D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59B6C5-28F6-49E0-AFC4-BADB537C691D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##\%"/>
-    <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -527,6 +527,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -536,18 +537,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -574,75 +569,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -939,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1065,94 +991,94 @@
     </row>
     <row r="6" spans="1:34" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
       <c r="H6" s="15"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="17"/>
       <c r="M6" s="18"/>
       <c r="O6" s="15"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="30"/>
+      <c r="R6" s="31"/>
       <c r="S6" s="17"/>
       <c r="T6" s="18"/>
       <c r="V6" s="15"/>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="30"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="18"/>
       <c r="AC6" s="15"/>
-      <c r="AE6" s="30" t="s">
+      <c r="AE6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AF6" s="30"/>
+      <c r="AF6" s="31"/>
       <c r="AG6" s="17"/>
       <c r="AH6" s="18"/>
     </row>
     <row r="7" spans="1:34" s="12" customFormat="1" ht="12">
       <c r="A7" s="15"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="19"/>
       <c r="F7" s="18"/>
       <c r="H7" s="15"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
       <c r="O7" s="15"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
       <c r="V7" s="15"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="18"/>
       <c r="AC7" s="15"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
       <c r="AG7" s="17"/>
       <c r="AH7" s="18"/>
     </row>
     <row r="8" spans="1:34" s="12" customFormat="1" ht="12">
       <c r="A8" s="15"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="19"/>
       <c r="F8" s="18"/>
       <c r="H8" s="15"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="17"/>
       <c r="M8" s="18"/>
       <c r="O8" s="15"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="17"/>
       <c r="T8" s="18"/>
       <c r="V8" s="15"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="18"/>
       <c r="AC8" s="15"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
       <c r="AG8" s="17"/>
       <c r="AH8" s="18"/>
     </row>
@@ -1195,38 +1121,38 @@
       <c r="J10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="O10" s="15"/>
       <c r="Q10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
       <c r="V10" s="15"/>
       <c r="X10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="31" t="s">
+      <c r="Y10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="33"/>
       <c r="AC10" s="15"/>
       <c r="AE10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AF10" s="31" t="s">
+      <c r="AF10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
     </row>
     <row r="11" spans="1:34" s="12" customFormat="1" ht="12">
       <c r="A11" s="15"/>
@@ -1312,7 +1238,7 @@
       <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="8"/>
@@ -1322,7 +1248,7 @@
       <c r="J13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="8"/>
@@ -1332,7 +1258,7 @@
       <c r="Q13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="S13" s="8"/>
@@ -1342,7 +1268,7 @@
       <c r="X13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y13" s="33" t="s">
+      <c r="Y13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Z13" s="8"/>
@@ -1352,7 +1278,7 @@
       <c r="AE13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AF13" s="33" t="s">
+      <c r="AF13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AG13" s="8"/>
@@ -1377,7 +1303,7 @@
     <mergeCell ref="J6:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576 T13 J1:J1048576 Q1:Q1048576 X1:X1048576 AE1:AE1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1390,9 +1316,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
+  <conditionalFormatting sqref="AF13">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>"R13 &lt; TODAY()"</formula>
+      <formula>$AF13&lt; 18/7/2019</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ticket/excel/ticket_template.xlsx
+++ b/src/main/resources/ticket/excel/ticket_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59B6C5-28F6-49E0-AFC4-BADB537C691D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626BFF51-AAB8-40D5-9582-9540584FC17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="4410" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{497F4014-E9A5-4B25-8036-F8F54CFD54A8}">
@@ -541,21 +541,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -569,13 +555,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -587,8 +566,169 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5001"/>
+      <color rgb="FFFC5104"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -865,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -874,31 +1014,31 @@
     <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="3" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="2" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="3" style="2" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="2" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="2" customWidth="1"/>
     <col min="20" max="21" width="9.140625" style="2" customWidth="1"/>
     <col min="22" max="22" width="4.5703125" style="2" customWidth="1"/>
     <col min="23" max="23" width="3" style="2" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="2" customWidth="1"/>
     <col min="26" max="26" width="7.5703125" style="2" customWidth="1"/>
     <col min="27" max="28" width="9.140625" style="2"/>
     <col min="29" max="29" width="4.5703125" style="2" customWidth="1"/>
     <col min="30" max="30" width="3" style="2" customWidth="1"/>
     <col min="31" max="31" width="20.7109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="2" customWidth="1"/>
     <col min="33" max="33" width="7.5703125" style="2" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1271,7 +1411,7 @@
       <c r="Y13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="8"/>
+      <c r="Z13" s="30"/>
       <c r="AA13" s="9"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="8"/>
@@ -1281,7 +1421,7 @@
       <c r="AF13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AG13" s="8"/>
+      <c r="AG13" s="30"/>
       <c r="AH13" s="9"/>
     </row>
     <row r="21" spans="24:24">
@@ -1303,7 +1443,7 @@
     <mergeCell ref="J6:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576 T13 J1:J1048576 Q1:Q1048576 X1:X1048576 AE1:AE1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1314,11 +1454,6 @@
           <x14:id>{418A026A-C9DE-49BB-9800-7F108A8F9CE8}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$AF13&lt; 18/7/2019</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ticket/excel/ticket_template.xlsx
+++ b/src/main/resources/ticket/excel/ticket_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626BFF51-AAB8-40D5-9582-9540584FC17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457BBB3-FF1D-4B16-91FB-01DDE7B8F085}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="4410" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,183 +541,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="1">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5001"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5001"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1443,7 +1274,7 @@
     <mergeCell ref="J6:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576 T13 J1:J1048576 Q1:Q1048576 X1:X1048576 AE1:AE1048576">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1454,6 +1285,11 @@
           <x14:id>{418A026A-C9DE-49BB-9800-7F108A8F9CE8}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>"TODAY()"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/ticket/excel/ticket_template.xlsx
+++ b/src/main/resources/ticket/excel/ticket_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457BBB3-FF1D-4B16-91FB-01DDE7B8F085}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB9D3F-5BFB-46F5-999D-31293D5ACF32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="705" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Areas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(lastCell="F15" items="daAssegnare" var="entry" direction="DOWN")</t>
+          <t>jx:each(lastCell="F15" items="daAssegnare" var="entry" direction="DOWN")
+jx:if(condition="entry.urgenza.equalsIgnoreCase('urgente')" lastCell="F4" areas=["Areas!A7:F7", "A4:F4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('alta')" lastCell="F4" areas=["Areas!A10:F10", "A4:F4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('media')" lastCell="F4" areas=["Areas!A13:F13", "A4:F4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('bassa')" lastCell="F4" areas=["Areas!A16:F16", "A4:F4"])</t>
         </r>
       </text>
     </comment>
@@ -71,8 +76,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="M15" items="assegnato" var="entry" direction="DOWN")
-</t>
+          <t>jx:each(lastCell="M15" items="assegnato" var="entry" direction="DOWN")
+jx:if(condition="entry.urgenza.equalsIgnoreCase('urgente')" lastCell="M4" areas=["Areas!A7:F7", "H4:M4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('alta')" lastCell="M4" areas=["Areas!A10:F10", "H4:M4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('media')" lastCell="M4" areas=["Areas!A13:F13", "H4:M4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('bassa')" lastCell="M4" areas=["Areas!A16:F16", "H4:M4"])</t>
         </r>
       </text>
     </comment>
@@ -85,8 +93,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="T15" items="inCorso" var="entry" direction="DOWN")
-</t>
+          <t>jx:each(lastCell="T15" items="inCorso" var="entry" direction="DOWN")
+jx:if(condition="entry.urgenza.equalsIgnoreCase('urgente')" lastCell="T4" areas=["Areas!A7:F7", "O4:T4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('alta')" lastCell="T4" areas=["Areas!A10:F10", "O4:T4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('media')" lastCell="T4" areas=["Areas!A13:F13", "O4:T4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('bassa')" lastCell="T4" areas=["Areas!A16:F16", "O4:T4"])</t>
         </r>
       </text>
     </comment>
@@ -99,8 +110,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="AA15" items="daTestare" var="entry" direction="DOWN")
-</t>
+          <t>jx:each(lastCell="AA15" items="daTestare" var="entry" direction="DOWN")
+jx:if(condition="entry.urgenza.equalsIgnoreCase('urgente')" lastCell="AA4" areas=["Areas!A7:F7", "V4:AA4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('alta')" lastCell="AA4" areas=["Areas!A10:F10", "V4:AA4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('media')" lastCell="AA4" areas=["Areas!A13:F13", "V4:AA4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('bassa')" lastCell="AA4" areas=["Areas!A16:F16", "V4:AA4"])</t>
         </r>
       </text>
     </comment>
@@ -113,8 +127,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="AH15" items="daRilasciare" var="entry" direction="DOWN")
-</t>
+          <t>jx:each(lastCell="AH15" items="daRilasciare" var="entry" direction="DOWN")
+jx:if(condition="entry.urgenza.equalsIgnoreCase('urgente')" lastCell="AH4" areas=["Areas!A7:F7", "AC4:AH4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('alta')" lastCell="AH4" areas=["Areas!A10:F10", "AC4:AH4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('media')" lastCell="AH4" areas=["Areas!A13:F13", "AC4:AH4"])
+jx:if(condition="entry.urgenza.equalsIgnoreCase('bassa')" lastCell="AH4" areas=["Areas!A16:F16", "AC4:AH4"])</t>
         </r>
       </text>
     </comment>
@@ -253,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>Ticket Demo</t>
   </si>
@@ -292,6 +309,18 @@
   </si>
   <si>
     <t>${entry.data}</t>
+  </si>
+  <si>
+    <t>Urgente</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Bassa</t>
   </si>
 </sst>
 </file>
@@ -302,7 +331,7 @@
     <numFmt numFmtId="164" formatCode="##\%"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +382,47 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Lato UI"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +456,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -537,22 +623,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -837,7 +921,7 @@
   <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1287,11 +1371,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>"TODAY()"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1313,4 +1392,77 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF5D2E6-9352-4AB1-8773-4BD67A816B32}">
+  <dimension ref="A4:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="1:6" ht="21">
+      <c r="A4" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>